--- a/biology/Biochimie/Méthanofurane/Méthanofurane.xlsx
+++ b/biology/Biochimie/Méthanofurane/Méthanofurane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thanofurane</t>
+          <t>Méthanofurane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Les méthanofuranes, abrégés en MFR, sont une famille de cofacteurs présents chez les archées méthanogènes[1]. Leur structure présente un 2-aminoéthylfurane lié à un groupe phénoxy. Au moins trois groupements terminaux ont été identifiés :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Les méthanofuranes, abrégés en MFR, sont une famille de cofacteurs présents chez les archées méthanogènes. Leur structure présente un 2-aminoéthylfurane lié à un groupe phénoxy. Au moins trois groupements terminaux ont été identifiés :
 méthanofurane a : R = tricarboxyheptanoyl ;
 méthanofurane b : R = glutamyl-glutamyl ;
 méthanofurane c : R = tricarboxy-2-hydroxyheptanoyl.</t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9thanofurane</t>
+          <t>Méthanofurane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Formylation des méthanofuranes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les méthanofuranes sont formylés en formylméthanofurane dès les premières étapes de la méthanogenèse. La formylméthanofurane déshydrogénase (EC 1.2.99.5) catalyse cette réaction à partir d'une molécule de dioxyde de carbone CO2, qui est la source première du carbone de cette voie métabolique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les méthanofuranes sont formylés en formylméthanofurane dès les premières étapes de la méthanogenèse. La formylméthanofurane déshydrogénase (EC 1.2.99.5) catalyse cette réaction à partir d'une molécule de dioxyde de carbone CO2, qui est la source première du carbone de cette voie métabolique.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9thanofurane</t>
+          <t>Méthanofurane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Déformylation des méthanofuranes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formylméthanofurane:tétrahydrométhanoptérine N-formyltransférase (EC 2.3.1.101) transfère le groupe formyle depuis le formylméthanofurane vers l'azote no 5 de la tétrahydrométhanoptérine. Cette enzyme, qui a été cristallisée, ne contient pas de groupement prosthétique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formylméthanofurane:tétrahydrométhanoptérine N-formyltransférase (EC 2.3.1.101) transfère le groupe formyle depuis le formylméthanofurane vers l'azote no 5 de la tétrahydrométhanoptérine. Cette enzyme, qui a été cristallisée, ne contient pas de groupement prosthétique.
 </t>
         </is>
       </c>
